--- a/project-schedule.xlsx
+++ b/project-schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Quality Assurance Plan</t>
   </si>
@@ -251,6 +251,18 @@
   <si>
     <t>Project Title</t>
   </si>
+  <si>
+    <t xml:space="preserve">프로젝트
+구상
+</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습
+및
+자료수집</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +274,7 @@
     <numFmt numFmtId="178" formatCode="\'yy"/>
     <numFmt numFmtId="179" formatCode="[$-409]mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -477,8 +489,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +568,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +1034,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1286,6 +1324,22 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2165,13 +2219,13 @@
   <dimension ref="B1:AJ33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
     <col min="3" max="22" width="4.85546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="23.140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="3.85546875" style="1"/>
@@ -2392,8 +2446,7 @@
     <row r="7" spans="2:36" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="110"/>
       <c r="C7" s="91">
-        <f>C6</f>
-        <v>43371</v>
+        <v>28</v>
       </c>
       <c r="D7" s="93">
         <f t="shared" ref="D7:V7" si="1">D6</f>
@@ -2479,10 +2532,10 @@
       <c r="AC7" s="29"/>
     </row>
     <row r="8" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="87"/>
+      <c r="B8" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="124"/>
       <c r="D8" s="88"/>
       <c r="E8" s="89"/>
       <c r="F8" s="88"/>
@@ -2507,9 +2560,7 @@
       <c r="Z8" s="71"/>
     </row>
     <row r="9" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="122"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
@@ -2535,7 +2586,9 @@
       <c r="Z9" s="74"/>
     </row>
     <row r="10" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="79"/>
+      <c r="B10" s="126" t="s">
+        <v>64</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -2561,7 +2614,7 @@
       <c r="Z10" s="74"/>
     </row>
     <row r="11" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="79"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="83"/>
@@ -2587,9 +2640,7 @@
       <c r="Z11" s="75"/>
     </row>
     <row r="12" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="125"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -2615,9 +2666,7 @@
       <c r="Z12" s="71"/>
     </row>
     <row r="13" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80" t="s">
-        <v>28</v>
-      </c>
+      <c r="B13" s="125"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -3002,9 +3051,12 @@
     <row r="32" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <hyperlinks>

--- a/project-schedule.xlsx
+++ b/project-schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Quality Assurance Plan</t>
   </si>
@@ -253,14 +253,1406 @@
   </si>
   <si>
     <t xml:space="preserve">프로젝트
-구상
+구상/제안
 </t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>학습
 및
-자료수집</t>
+정보/자료수집</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - RFP(Request for Proposal)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>착수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파악과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계획의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획안에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명시된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행범위의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산출물에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유무의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료보고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산출물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전달</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TFT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영범위와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부항목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+http://www.ditoday.com/articles/articles_view.html?idno=9303</t>
+    </r>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +1666,7 @@
     <numFmt numFmtId="178" formatCode="\'yy"/>
     <numFmt numFmtId="179" formatCode="[$-409]mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -503,8 +1895,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +1986,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,7 +2446,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1286,60 +2698,66 @@
     <xf numFmtId="178" fontId="33" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2216,10 +3634,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AJ33"/>
+  <dimension ref="B1:AJ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2258,12 +3676,12 @@
       <c r="D3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="112">
         <v>43371</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="Y3" s="32" t="s">
         <v>49</v>
       </c>
@@ -2351,7 +3769,7 @@
       <c r="AC5" s="29"/>
     </row>
     <row r="6" spans="2:36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="110" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="86">
@@ -2444,7 +3862,7 @@
       <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="2:36" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="91">
         <v>28</v>
       </c>
@@ -2532,10 +3950,10 @@
       <c r="AC7" s="29"/>
     </row>
     <row r="8" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="124"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="88"/>
       <c r="E8" s="89"/>
       <c r="F8" s="88"/>
@@ -2560,7 +3978,7 @@
       <c r="Z8" s="71"/>
     </row>
     <row r="9" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
@@ -2586,7 +4004,7 @@
       <c r="Z9" s="74"/>
     </row>
     <row r="10" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="125" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="7"/>
@@ -2614,7 +4032,7 @@
       <c r="Z10" s="74"/>
     </row>
     <row r="11" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="126"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="83"/>
@@ -2640,7 +4058,9 @@
       <c r="Z11" s="75"/>
     </row>
     <row r="12" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="125"/>
+      <c r="B12" s="126" t="s">
+        <v>65</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -2666,7 +4086,7 @@
       <c r="Z12" s="71"/>
     </row>
     <row r="13" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="125"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -3044,14 +4464,179 @@
       <c r="W26" s="18"/>
     </row>
     <row r="27" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+    </row>
+    <row r="29" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+    </row>
+    <row r="30" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+    </row>
+    <row r="31" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+    </row>
+    <row r="32" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+    </row>
+    <row r="33" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B28:W34"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B12:B13"/>
@@ -3115,12 +4700,12 @@
       <c r="D3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="112">
         <v>41640</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="AC3" s="32" t="s">
         <v>49</v>
       </c>
@@ -3243,7 +4828,7 @@
       <c r="AG5" s="29"/>
     </row>
     <row r="6" spans="2:40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="105">
         <f>DATE(YEAR(E3),MONTH(E3),1)</f>
         <v>41640</v>
@@ -3350,7 +4935,7 @@
       <c r="AG6" s="29"/>
     </row>
     <row r="7" spans="2:40" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="107">
         <f>C6</f>
         <v>41640</v>
@@ -4110,12 +5695,12 @@
       <c r="D3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="112">
         <v>41644</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="Y3" s="32" t="s">
         <v>49</v>
       </c>
@@ -4195,7 +5780,7 @@
       </c>
     </row>
     <row r="6" spans="2:25" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="117" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="86">
@@ -4284,7 +5869,7 @@
       <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="91">
         <f>C6</f>
         <v>41644</v>
@@ -4393,7 +5978,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="20"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="119" t="s">
+      <c r="V8" s="122" t="s">
         <v>60</v>
       </c>
       <c r="W8" s="16"/>
@@ -4424,7 +6009,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="11"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="120"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="17"/>
       <c r="Y9" s="73"/>
     </row>
@@ -4451,7 +6036,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="11"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="120"/>
+      <c r="V10" s="123"/>
       <c r="W10" s="17"/>
       <c r="Y10" s="73"/>
     </row>
@@ -4480,7 +6065,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="11"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="120"/>
+      <c r="V11" s="123"/>
       <c r="W11" s="17"/>
       <c r="Y11" s="72"/>
     </row>
@@ -4509,7 +6094,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="11"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="120"/>
+      <c r="V12" s="123"/>
       <c r="W12" s="17"/>
       <c r="Y12" s="72"/>
     </row>
@@ -4536,7 +6121,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="11"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="120"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="17"/>
       <c r="Y13" s="72"/>
     </row>
@@ -4563,7 +6148,7 @@
       <c r="S14" s="8"/>
       <c r="T14" s="11"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="120"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="17"/>
       <c r="Y14" s="72"/>
     </row>
@@ -4590,7 +6175,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="11"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="120"/>
+      <c r="V15" s="123"/>
       <c r="W15" s="17"/>
       <c r="Y15" s="72"/>
     </row>
@@ -4617,7 +6202,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="11"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="120"/>
+      <c r="V16" s="123"/>
       <c r="W16" s="17"/>
       <c r="Y16" s="72"/>
     </row>
@@ -4631,7 +6216,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="8"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="116" t="s">
+      <c r="I17" s="119" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="98" t="s">
@@ -4648,7 +6233,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="11"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="120"/>
+      <c r="V17" s="123"/>
       <c r="W17" s="17"/>
       <c r="Y17" s="72"/>
     </row>
@@ -4662,7 +6247,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="8"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="117"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="98" t="s">
         <v>10</v>
       </c>
@@ -4677,7 +6262,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="11"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="120"/>
+      <c r="V18" s="123"/>
       <c r="W18" s="17"/>
       <c r="Y18" s="72"/>
     </row>
@@ -4689,7 +6274,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="8"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="117"/>
+      <c r="I19" s="120"/>
       <c r="J19" s="11"/>
       <c r="K19" s="98" t="s">
         <v>11</v>
@@ -4704,7 +6289,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="11"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="120"/>
+      <c r="V19" s="123"/>
       <c r="W19" s="17"/>
       <c r="Y19" s="72"/>
     </row>
@@ -4716,7 +6301,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="117"/>
+      <c r="I20" s="120"/>
       <c r="J20" s="98" t="s">
         <v>12</v>
       </c>
@@ -4731,7 +6316,7 @@
       <c r="S20" s="8"/>
       <c r="T20" s="11"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="120"/>
+      <c r="V20" s="123"/>
       <c r="W20" s="17"/>
       <c r="Y20" s="72"/>
     </row>
@@ -4743,7 +6328,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="8"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="117"/>
+      <c r="I21" s="120"/>
       <c r="J21" s="11"/>
       <c r="K21" s="8"/>
       <c r="L21" s="11"/>
@@ -4758,7 +6343,7 @@
       <c r="S21" s="8"/>
       <c r="T21" s="11"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="120"/>
+      <c r="V21" s="123"/>
       <c r="W21" s="17"/>
       <c r="Y21" s="72"/>
     </row>
@@ -4770,7 +6355,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="8"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="117"/>
+      <c r="I22" s="120"/>
       <c r="J22" s="11"/>
       <c r="K22" s="8"/>
       <c r="L22" s="11"/>
@@ -4785,7 +6370,7 @@
       <c r="S22" s="8"/>
       <c r="T22" s="11"/>
       <c r="U22" s="8"/>
-      <c r="V22" s="120"/>
+      <c r="V22" s="123"/>
       <c r="W22" s="17"/>
     </row>
     <row r="23" spans="2:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4796,7 +6381,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="8"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="117"/>
+      <c r="I23" s="120"/>
       <c r="J23" s="11"/>
       <c r="K23" s="8"/>
       <c r="L23" s="11"/>
@@ -4811,7 +6396,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="120"/>
+      <c r="V23" s="123"/>
       <c r="W23" s="17"/>
     </row>
     <row r="24" spans="2:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4822,7 +6407,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="8"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="117"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="11"/>
       <c r="K24" s="8"/>
       <c r="L24" s="11"/>
@@ -4837,7 +6422,7 @@
       <c r="S24" s="15"/>
       <c r="T24" s="11"/>
       <c r="U24" s="8"/>
-      <c r="V24" s="120"/>
+      <c r="V24" s="123"/>
       <c r="W24" s="17"/>
     </row>
     <row r="25" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4848,7 +6433,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="118"/>
+      <c r="I25" s="121"/>
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
       <c r="L25" s="13"/>
@@ -4863,7 +6448,7 @@
       <c r="S25" s="101"/>
       <c r="T25" s="101"/>
       <c r="U25" s="101"/>
-      <c r="V25" s="121"/>
+      <c r="V25" s="124"/>
       <c r="W25" s="18"/>
     </row>
     <row r="26" spans="2:25" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
